--- a/medicine/Mort/Destination_finale/Destination_finale.xlsx
+++ b/medicine/Mort/Destination_finale/Destination_finale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Destination finale, ou Destination ultime au Québec (Final Destination), est un film d'horreur américain réalisé par James Wong, sorti en 2000.
 Le scénario a été écrit par James Wong lui-même avec l'aide de Jeffrey Reddick, et Glen Morgan, basé sur une histoire de Reddick. Il met en scène les acteurs Devon Sawa, Ali Larter, Kerr Smith, Seann William Scott, Kristen Cloke, Amanda Detmer, Chad E. Donella et Tony Todd entre autres. L'histoire suit les aventures horrifiques d'un jeune étudiant en partance pour Paris avec sa classe qui a une vision du crash de son avion lors du décollage. Il sauve ses amis d'une mort certaine en les faisant débarquer de l'avion alors que celui-ci explose. Alors qu'ils viennent d'échapper à leur destin, la Mort elle-même va décider de reprendre ce qui lui était dû.
-L'histoire de la production du film démarre lorsque Reddick écrit un scénario pour un épisode de X-Files dans le but d'obtenir un agent au sein de la télévision. Le scénario ne sera jamais présenté pour la série puisqu'un ami du scénariste faisant partie de la New Line Cinema le persuadera de transformer le scénario en un film entier. Plus tard, Wong et Glen Morgan, ses deux partenaires sur X-Files deviennent intéressés par le script et acceptent volontiers de réécrire et de diriger le film ce qui devient le premier film réalisé par Wong[1],[2],[3],[4]. Le tournage a lieu à New York et Vancouver avec quelques scènes additionnelles tournées à Toronto et San Francisco. Le film sort le 17 mars 2000 aux États-Unis et devient très vite un petit succès empochant 10 millions de dollars directement lors de son premier week-end[5]. Le DVD du film contient alors des commentaires, des scènes coupées et des documentaires[2],[6],[7].
-À sa sortie, le film reçoit des avis mitigés de la part de la critique, les mauvaises critiquant le film de « dramatiquement plat » visant « des foules d'adolescents en rencards » tandis que les critiques positives apprécient énormément « la quantité respectable de suspens » que livre le film ainsi que ses tons « espiègle et énergique qui arrivent à capter et garder l'attention du public »[8],[9]. Il reçoit le Saturn Award du meilleur film d'horreur ainsi que le Saturn Award du meilleur jeune acteur pour Devon Sawa et sa performance[10].
+L'histoire de la production du film démarre lorsque Reddick écrit un scénario pour un épisode de X-Files dans le but d'obtenir un agent au sein de la télévision. Le scénario ne sera jamais présenté pour la série puisqu'un ami du scénariste faisant partie de la New Line Cinema le persuadera de transformer le scénario en un film entier. Plus tard, Wong et Glen Morgan, ses deux partenaires sur X-Files deviennent intéressés par le script et acceptent volontiers de réécrire et de diriger le film ce qui devient le premier film réalisé par Wong. Le tournage a lieu à New York et Vancouver avec quelques scènes additionnelles tournées à Toronto et San Francisco. Le film sort le 17 mars 2000 aux États-Unis et devient très vite un petit succès empochant 10 millions de dollars directement lors de son premier week-end. Le DVD du film contient alors des commentaires, des scènes coupées et des documentaires.
+À sa sortie, le film reçoit des avis mitigés de la part de la critique, les mauvaises critiquant le film de « dramatiquement plat » visant « des foules d'adolescents en rencards » tandis que les critiques positives apprécient énormément « la quantité respectable de suspens » que livre le film ainsi que ses tons « espiègle et énergique qui arrivent à capter et garder l'attention du public »,. Il reçoit le Saturn Award du meilleur film d'horreur ainsi que le Saturn Award du meilleur jeune acteur pour Devon Sawa et sa performance.
 Le succès de ce thriller donne naissance à quatre suites sorties entre 2003 et 2011 ainsi qu'à une série de romans mais aussi des comics.
 </t>
         </is>
@@ -515,7 +527,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Alex Browning, lycéen américain de 17 ans, embarque dans un Boeing 747 avec ses camarades de classe pour leur voyage à Paris. Avant le décollage, il fait un cauchemar dans lequel il voit l'avion exploser en plein vol, tuant tous ses passagers. Alex se réveille et comprend qu'il vient d'avoir une vision prémonitoire. Lorsque les événements de sa vision commencent à se produire dans la réalité, il décide d'alerter l'équipage et d'inciter les passagers à quitter l'appareil mais une bagarre éclate entre Alex et son rival, Carter Horton. En conséquence, Alex, Carter, Tod Waggner, le meilleur ami d'Alex, Terry Chaney, la petite amie de Carter, l'enseignante Valerie Lewton, et les étudiants Billy Hitchcock et Claire Rivers sont expulsés de l'appareil. Aucun des passagers, à l'exception de Claire, ne croit Alex au sujet de sa vision jusqu'à ce que l'avion explose au décollage, tuant tous les passagers à bord. Par la suite, le groupe est interrogé par deux agents du FBI, qui croient qu'Alex a quelque chose à voir avec l'explosion.
 Trente-neuf jours plus tard, les survivants assistent à un service commémoratif pour les victimes. Cette nuit-là, une réaction en chaîne provoque l'étranglement de Tod dans sa salle de bains. Sa mort est considérée comme un suicide, cependant Alex n'y croit pas. Pour voir le corps de Tod, Claire et lui se faufilent dans la maison funéraire, où ils rencontrent l'entrepreneur de pompes funèbres William Bludworth. Celui-ci leur explique qu'ils ont déjoué la Mort et qu'elle prend maintenant la vie de ceux qui devaient mourir dans l'avion.
@@ -552,7 +566,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original : Final Destination
@@ -571,24 +587,24 @@
 Coproduction : Art Schaefer
 Production déléguée : Richard Brener et Brian Witten
 Production associée : Chris Bender
-Sociétés de production[11] : Zide/Perry Productions et Hard Eight Pictures, avec la participation de New Line Cinema
-Sociétés de distribution[11] :
+Sociétés de production : Zide/Perry Productions et Hard Eight Pictures, avec la participation de New Line Cinema
+Sociétés de distribution :
 États-Unis : New Line Cinema, Entertainment Film Distributors
 Canada / Québec : Alliance Atlantis Communications / Alliance Atlantis VivaFilm
 France : Metropolitan Filmexport
-Budget : 23 millions de $[12]
+Budget : 23 millions de $
 Langues originales : anglais, français
 Pays d'origine :  États-Unis
-Format[13] : couleur (DeLuxe) - 35 mm - 1,85:1 (Panavision) - son DTS | Dolby Digital | SDDS
+Format : couleur (DeLuxe) - 35 mm - 1,85:1 (Panavision) - son DTS | Dolby Digital | SDDS
 Genres : Épouvante-horreur, thriller, fantastique, gore
 Durée : 98 minutes
-Dates de sortie[14] :
-États-Unis, Québec[15] : 17 mars 2000
+Dates de sortie :
+États-Unis, Québec : 17 mars 2000
 France, Belgique : 12 juillet 2000
-Suisse romande[16] : 19 juillet 2000
-Classification[17] :
+Suisse romande : 19 juillet 2000
+Classification :
  États-Unis : Interdit aux moins de 17 ans (R – Restricted)[Note 1].
- France : Interdit aux moins de 12 ans (visa d'exploitation no 100084 délivré le 18 août 2000)[18].</t>
+ France : Interdit aux moins de 12 ans (visa d'exploitation no 100084 délivré le 18 août 2000).</t>
         </is>
       </c>
     </row>
@@ -616,7 +632,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Devon Sawa (VF : Alexandre Gillet ; VQ : Hugolin Chevrette-Landesque) : Alex Browning
 Ali Larter (VF : Sylvie Jacob ; VQ : Lisette Dufour) : Claire Rivers (Clear Rivers en VO)
@@ -669,8 +687,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Casting
-Alex Browning et Claire Rivers devaient initialement être incarnés par Tobey Maguire et Kirsten Dunst, le duo de la trilogie Spider-Man de Sam Raimi mais les acteurs Devon Sawa et Ali Larter ont été privilégiés pour les rôles.
+          <t>Casting</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alex Browning et Claire Rivers devaient initialement être incarnés par Tobey Maguire et Kirsten Dunst, le duo de la trilogie Spider-Man de Sam Raimi mais les acteurs Devon Sawa et Ali Larter ont été privilégiés pour les rôles.
 Alex Browning, héros de Destination finale, n'est pas présent dans Destination finale 2 bien qu'il ne trouve pas la mort dans le premier. Ceci est dû au refus de l'acteur Devon Sawa de participer à la suite. Il est dit dans le second opus qu'Alex est mort entre les deux films, à la suite d'une chute de brique.
 La chanteuse de R'n'B Brandy Norwood aurait dû faire partie de l'histoire mais elle avait dû refuser car elle était sur le tournage de sa série télé Moesha.
 L'actrice Kristen Cloke, qui interprète Mlle Lewton dans le film est l'épouse du producteur exécutif du film, Glen Morgan.
@@ -704,9 +727,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Box-office
-Critique
-Le film a obtenu globalement des critiques très mitigées. Il recueille 36 % de critiques positives, avec un score moyen de 4,9/10 et sur la base de 97 critiques collectées, sur le site Rotten Tomatoes[21]. Sur Metacritic, il obtient un score de 36/100, sur la base de 28 critiques collectées[22].
+          <t>Critique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film a obtenu globalement des critiques très mitigées. Il recueille 36 % de critiques positives, avec un score moyen de 4,9/10 et sur la base de 97 critiques collectées, sur le site Rotten Tomatoes. Sur Metacritic, il obtient un score de 36/100, sur la base de 28 critiques collectées.
 </t>
         </is>
       </c>
@@ -735,17 +762,88 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>En 2001, Destination finale a été sélectionné 8 fois dans diverses catégories et a remporté 3 récompenses[23].
-Récompenses
-Académie des films de science-fiction, fantastique et d'horreur - Saturn Awards 2001 :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2001, Destination finale a été sélectionné 8 fois dans diverses catégories et a remporté 3 récompenses.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Destination_finale</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Destination_finale</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Académie des films de science-fiction, fantastique et d'horreur - Saturn Awards 2001 :
 Prix Saturn du Meilleur film d'horreur,
 Prix Saturn du Meilleur jeune acteur décerné à Devon Sawa.
 Récompenses du jeune public d'Hollywood 2001 :
-Prix du jeune public d'Hollywood de la Meilleure révélation féminine décerné à Ali Larter.
-Nominations
-Association turque des critiques de cinéma (Turkish Film Critics Association (SIYAD) Awards) 2001 : Meilleur film étranger (19e place).
+Prix du jeune public d'Hollywood de la Meilleure révélation féminine décerné à Ali Larter.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Destination_finale</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Destination_finale</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Association turque des critiques de cinéma (Turkish Film Critics Association (SIYAD) Awards) 2001 : Meilleur film étranger (19e place).
 Prix du divertissement à succès 2001 :
 Meilleure actrice dans un film d’horreur (Internet uniquement) pour Ali Larter,
 Meilleur acteur dans un film d’horreur (Internet uniquement) pour Devon Sawa.
@@ -754,65 +852,69 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Destination_finale</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Destination_finale</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Destination_finale</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Destination_finale</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Anecdotes</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Dans une autre version du film, on voit une fin où Alex meurt électrocuté à la place de Claire et où elle attend un enfant d'Alex. On la voit avec son bébé et Carter devant le mémorial du lycée mais les critiques ayant trouvé la fin trop optimiste pour un film d'horreur et n'ayant pas apprécié que Carter survive, elle a dû être changée pour donner un sens à la suite.
 Les images du journal télévisé que regarde Alex après l'accident sont des archives du TWA 800 de East Moriches (Long Island, New York) qui a lui aussi pris feu avant de se crasher le 17 juillet 1996.
 Le film devait initialement s'intituler Vol 180 (Flight 180 en V.O.) avant que la production décide de le changer afin que le film ne soit pas préjugé « film d'avion ».
 Dans la dernière scène du film, l'enseigne qui fait la dernière victime est celle du café Miro81. On y retrouve le nombre 180 par effet miroir ; d'ailleurs, ce chiffre revient sans cesse dans la pentalogie Destination finale.
-De nombreux personnages sont dotés de patronymes faisant référence à des cinéastes ou acteurs s'étant illustrés dans le domaine de l'épouvante et de l'horreur : Tod Browning, Alfred Hitchcock[24], Val Lewton, Lon Chaney, Friedrich Wilhelm Murnau, Max Schreck et Carl Theodor Dreyer.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Destination_finale</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Destination_finale</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+De nombreux personnages sont dotés de patronymes faisant référence à des cinéastes ou acteurs s'étant illustrés dans le domaine de l'épouvante et de l'horreur : Tod Browning, Alfred Hitchcock, Val Lewton, Lon Chaney, Friedrich Wilhelm Murnau, Max Schreck et Carl Theodor Dreyer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Destination_finale</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Destination_finale</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Bande originale</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Rocky Mountain High de John Denver, mort dans un accident d'avion. Le thème est également repris indirectement dans la suite.
 Hundred Grand de Pete Atherton
